--- a/src/16t/assets/BEAM_2.xlsx
+++ b/src/16t/assets/BEAM_2.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t xml:space="preserve"> 二级BOM  主梁，14˂S≤17 ，4.4˂H0≤7.5m（图号：M60533）</t>
   </si>
   <si>
-    <t>7004-00472</t>
+    <t>7004-00619</t>
   </si>
   <si>
     <t>主梁</t>
@@ -91,7 +91,7 @@
     <t>M310501.4</t>
   </si>
   <si>
-    <t>7004-00562</t>
+    <t>7004-00728</t>
   </si>
   <si>
     <t>工字钢 I28b</t>
@@ -106,7 +106,7 @@
     <t>Q235BF</t>
   </si>
   <si>
-    <t>7004-00563</t>
+    <t>7004-00729</t>
   </si>
   <si>
     <t>侧盖板</t>
@@ -130,7 +130,7 @@
     <t>借NF100-00</t>
   </si>
   <si>
-    <t>7004-00564</t>
+    <t>7004-00730</t>
   </si>
   <si>
     <t xml:space="preserve">U型槽 </t>
@@ -139,7 +139,7 @@
     <t>U型槽 6×450×585-(S+26)</t>
   </si>
   <si>
-    <t>7004-00565</t>
+    <t>7004-00731</t>
   </si>
   <si>
     <t>隔板</t>
@@ -148,7 +148,7 @@
     <t>隔板 5×496×792</t>
   </si>
   <si>
-    <t>7004-00566</t>
+    <t>7004-00732</t>
   </si>
   <si>
     <t>燕尾板</t>
@@ -157,7 +157,7 @@
     <t>燕尾板 10×620×600</t>
   </si>
   <si>
-    <t>7004-00567</t>
+    <t>7004-00733</t>
   </si>
   <si>
     <t>挂板</t>
@@ -166,7 +166,7 @@
     <t>挂板 24×420×700</t>
   </si>
   <si>
-    <t>7004-00568</t>
+    <t>7004-00734</t>
   </si>
   <si>
     <t>堵头板</t>
@@ -175,7 +175,7 @@
     <t>堵头板 8×620×1210</t>
   </si>
   <si>
-    <t>7004-00569</t>
+    <t>7004-00735</t>
   </si>
   <si>
     <t>加强板</t>
@@ -184,7 +184,7 @@
     <t>板 8×303×600</t>
   </si>
   <si>
-    <t>7004-00570</t>
+    <t>7004-00736</t>
   </si>
   <si>
     <t>挑线架</t>
@@ -193,7 +193,7 @@
     <t>M60331.1A</t>
   </si>
   <si>
-    <t>7004-00571</t>
+    <t>7004-00737</t>
   </si>
   <si>
     <t>法兰板</t>
@@ -202,10 +202,7 @@
     <t>板 12×590×1050</t>
   </si>
   <si>
-    <t>7004-00587</t>
-  </si>
-  <si>
-    <t>7004-00635</t>
+    <t>7004-00738</t>
   </si>
   <si>
     <t>贴板</t>
@@ -220,8 +217,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -247,45 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,11 +258,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,32 +288,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,10 +320,42 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,6 +380,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -418,67 +415,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,104 +599,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -640,20 +637,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,30 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,8 +700,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,10 +754,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,125 +766,125 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,7 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,7 +1247,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1339,7 +1326,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T2" s="9"/>
@@ -1387,7 +1374,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T3" s="9"/>
@@ -1435,7 +1422,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="9"/>
@@ -1483,7 +1470,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T5" s="9"/>
@@ -1535,7 +1522,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T6" s="9"/>
@@ -1587,7 +1574,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T7" s="9"/>
@@ -1639,7 +1626,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T8" s="9"/>
@@ -1691,7 +1678,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T9" s="9"/>
@@ -1741,7 +1728,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T10" s="9"/>
@@ -1793,7 +1780,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T11" s="9"/>
@@ -1820,19 +1807,17 @@
         <v>43</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>14</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="9"/>
+      <c r="L12" s="14">
         <v>6.66</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <f t="shared" si="0"/>
         <v>93.24</v>
       </c>
@@ -1845,7 +1830,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T12" s="9"/>
@@ -1878,9 +1863,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="7">
         <v>6.75</v>
       </c>
@@ -1897,7 +1880,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T13" s="9"/>
@@ -1930,9 +1913,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="7">
         <v>16.88</v>
       </c>
@@ -1949,7 +1930,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="9"/>
@@ -1982,9 +1963,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="7">
         <v>19.87</v>
       </c>
@@ -2001,7 +1980,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T15" s="9"/>
@@ -2034,9 +2013,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="7">
         <v>5.26</v>
       </c>
@@ -2053,7 +2030,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="16" t="s">
+      <c r="S16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T16" s="9"/>
@@ -2105,7 +2082,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="9"/>
@@ -2138,9 +2115,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="7">
         <v>43.1</v>
       </c>
@@ -2157,7 +2132,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="9"/>
@@ -2167,17 +2142,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -2187,6 +2162,9 @@
       </c>
       <c r="J19" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
       </c>
       <c r="L19" s="7">
         <v>30.7</v>
